--- a/medicine/Enfance/Shannon_Hale/Shannon_Hale.xlsx
+++ b/medicine/Enfance/Shannon_Hale/Shannon_Hale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shannon Hale, née le 26 janvier 1974 à Salt Lake City en Utah, est une autrice américaine de littérature d'enfance et de jeunesse et de fantasy.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shannon Hale est née Shannon Bryner[1]. Elle a trois sœurs et un frère[1]. Comme enfant, elle aimait lire et écrire. Elle obtient un diplôme de l'Université de Utah[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shannon Hale est née Shannon Bryner. Elle a trois sœurs et un frère. Comme enfant, elle aimait lire et écrire. Elle obtient un diplôme de l'Université de Utah.
 </t>
         </is>
       </c>
@@ -544,37 +558,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série The Books of Bayern
-La Princesse qui n'avait plus rien, Pocket Jeunesse, 2005 ((en) The Goose Girl, 2003)
+          <t>Série The Books of Bayern</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Princesse qui n'avait plus rien, Pocket Jeunesse, 2005 ((en) The Goose Girl, 2003)
 Enna, fille du feu, Pocket Jeunesse, 2006 ((en) Enna Burning, 2004)
 (en) River Secrets, 2006
-(en) Forest Born, 2009
-Série Princess Academy
-Le Collège des princesses, Gallimard Jeunesse, coll. « Folio Junior », 2009 ((en) Princess Academy, 2005)
-(en) Palace of Stone, 2012
-(en) The Forgotten Sisters, 2015
-Série Austenland
-Coup de foudre à Austenland, Charleston, 2013 ((en) Austenland, 2007)Adapté au cinéma sous le titre Austenland en 2013
-(en) Midnight in Austenland, 2012
-Série Rapunzel's Revenge
-Cette série est coécrite avec Dean Hale et illustrée par Nathan Hale.
-(en) Rapunzel's Revenge, 2008
-(en) Calamity Jack, 2010
-Série Ever After High
-Le Livre des légendes, Hachette Jeunesse, 2013 ((en) The Storybook of Legends, 2013)
-La plus rebelle de toutes, Hachette Jeunesse, 2014 ((en) The Unfairest of Them All, 2014)
-Le Merveilleux Pays des merveilles, Hachette Jeunesse, 2014 ((en) A Wonderlandiful World, 2014)
-Il était une fois, Hachette Jeunesse, 2015 ((en) Once Upon a Time, 2015)
-Série La Princesse masquée
-Cette série est coécrite avec Dean Hale et illustrée par Leuyen Pham.
-La Princesse masquée, Hachette Jeunesse, 2015 ((en) The Princess in Black, 2014)
-Série Animal Tatoo
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Tui Sutherland (tome 5), Eliot Schrefer (tome 6) et Marie Lu (tome 7).
- La Cité de glace, Bayard, 2015 ((en) Fire and Ice, 2014)
-Romans indépendants
-Par delà les steppes je te retrouverai, Bayard Jeunesse, 2014 ((en) Book of a Thousand Days, 2007)
-(en) The Actor and the Housewife, 2009
-(en) Dangerous, 2014</t>
+(en) Forest Born, 2009</t>
         </is>
       </c>
     </row>
@@ -599,10 +592,276 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Princess Academy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Collège des princesses, Gallimard Jeunesse, coll. « Folio Junior », 2009 ((en) Princess Academy, 2005)
+(en) Palace of Stone, 2012
+(en) The Forgotten Sisters, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Austenland</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Coup de foudre à Austenland, Charleston, 2013 ((en) Austenland, 2007)Adapté au cinéma sous le titre Austenland en 2013
+(en) Midnight in Austenland, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Rapunzel's Revenge</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Dean Hale et illustrée par Nathan Hale.
+(en) Rapunzel's Revenge, 2008
+(en) Calamity Jack, 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Ever After High</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Livre des légendes, Hachette Jeunesse, 2013 ((en) The Storybook of Legends, 2013)
+La plus rebelle de toutes, Hachette Jeunesse, 2014 ((en) The Unfairest of Them All, 2014)
+Le Merveilleux Pays des merveilles, Hachette Jeunesse, 2014 ((en) A Wonderlandiful World, 2014)
+Il était une fois, Hachette Jeunesse, 2015 ((en) Once Upon a Time, 2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série La Princesse masquée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Dean Hale et illustrée par Leuyen Pham.
+La Princesse masquée, Hachette Jeunesse, 2015 ((en) The Princess in Black, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Garth Nix et Sean Williams (tome 3), Tui Sutherland (tome 5), Eliot Schrefer (tome 6) et Marie Lu (tome 7).
+ La Cité de glace, Bayard, 2015 ((en) Fire and Ice, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Par delà les steppes je te retrouverai, Bayard Jeunesse, 2014 ((en) Book of a Thousand Days, 2007)
+(en) The Actor and the Housewife, 2009
+(en) Dangerous, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Shannon_Hale</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2010 : Prix Leah Adezio de la meilleure œuvre pour enfant pour Rapunzel's Revenge (avec Nathan Hale)</t>
         </is>
